--- a/grupos/3APM - Estadisticos 20211.xlsx
+++ b/grupos/3APM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="113">
   <si>
     <t>Materia</t>
   </si>
@@ -155,10 +155,10 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Castro Vasquez Julieta</t>
+  </si>
+  <si>
     <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Castro Vasquez Julieta</t>
   </si>
   <si>
     <t>Avila Coronado Julieta</t>
@@ -1390,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W11">
         <v>9</v>
@@ -1544,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1598,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W13">
         <v>7</v>
@@ -1763,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W16">
         <v>7</v>
@@ -1840,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1894,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W17">
         <v>10</v>
@@ -1994,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W19">
         <v>6</v>
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -2202,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W21">
         <v>9</v>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2279,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W22">
         <v>6</v>
@@ -2302,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -2356,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W23">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -2433,7 +2433,7 @@
         <v>9</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W24">
         <v>10</v>
@@ -2732,63 +2732,66 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.9</v>
+      </c>
       <c r="I2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.78</v>
+        <v>37.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="I3">
         <v>15</v>
       </c>
       <c r="J3">
-        <v>65.22</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3013,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3033,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3133,7 +3136,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3153,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3253,7 +3256,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3273,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3373,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3393,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3493,7 +3496,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3513,7 +3516,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3613,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3633,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3733,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3753,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3853,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3873,7 +3876,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3973,7 +3976,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4073,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4093,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4193,7 +4196,7 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4213,7 +4216,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4313,7 +4316,7 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4333,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4433,7 +4436,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4453,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4553,7 +4556,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4573,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4673,7 +4676,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4693,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4793,7 +4796,7 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4813,7 +4816,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4913,7 +4916,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4933,7 +4936,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5033,7 +5036,7 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5053,7 +5056,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5153,7 +5156,7 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5173,7 +5176,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5273,7 +5276,7 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5293,7 +5296,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5393,7 +5396,7 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5413,7 +5416,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5513,7 +5516,7 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5533,7 +5536,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5633,7 +5636,7 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5653,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5753,7 +5756,7 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5773,7 +5776,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6265,7 +6268,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6315,7 +6318,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -6346,22 +6349,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920381</v>
+        <v>20330051920347</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -6369,22 +6372,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920381</v>
+        <v>20330051920347</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6407,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6430,7 +6433,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6453,7 +6456,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -6476,7 +6479,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -6484,139 +6487,24 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920344</v>
+        <v>20330051920381</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920348</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920350</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920353</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920355</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920382</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/3APM - Estadisticos 20211.xlsx
+++ b/grupos/3APM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="117">
   <si>
     <t>Materia</t>
   </si>
@@ -74,6 +74,9 @@
     <t>CRUZ PIMENTEL ISYSS MONSERRATH</t>
   </si>
   <si>
+    <t>CUEVAS CUATRA CESAR</t>
+  </si>
+  <si>
     <t>GERARDO CASTRO EDUARDO</t>
   </si>
   <si>
@@ -158,12 +161,12 @@
     <t>Castro Vasquez Julieta</t>
   </si>
   <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
     <t>De Jesús Orduña Sofía del Pilar</t>
   </si>
   <si>
@@ -197,166 +200,175 @@
     <t>CORTES</t>
   </si>
   <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
     <t>GERARDO</t>
   </si>
   <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>NAMIGTLE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>XILCAHUA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ATILANO</t>
+  </si>
+  <si>
+    <t>VILLALBA</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>PIMENTEL</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>IXTLA</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>ISYSS MONSERRATH</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>ELIEL</t>
+  </si>
+  <si>
+    <t>EDGAR DANIEL</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAHIR</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>JAHEL</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ANGELA MONTSERRAT</t>
+  </si>
+  <si>
     <t>MIRANDA</t>
   </si>
   <si>
-    <t>NAMIGTLE</t>
-  </si>
-  <si>
     <t>ROMAN</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
     <t>URBANO</t>
   </si>
   <si>
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ATILANO</t>
-  </si>
-  <si>
-    <t>VILLALBA</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>PIMENTEL</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
     <t>AGUIRRE</t>
   </si>
   <si>
-    <t>IXTLA</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>ESTRELLA</t>
   </si>
   <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>PEREZ</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>ADAN</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>ISYSS MONSERRATH</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
     <t>MARIAM GUADALUPE</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>ELIEL</t>
-  </si>
-  <si>
-    <t>EDGAR DANIEL</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAHIR</t>
-  </si>
-  <si>
     <t>ESTEFANI</t>
   </si>
   <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
     <t>INGRID</t>
-  </si>
-  <si>
-    <t>JAHEL</t>
-  </si>
-  <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ANGELA MONTSERRAT</t>
   </si>
 </sst>
 </file>
@@ -714,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -905,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -928,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -982,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>6</v>
@@ -1005,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1059,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>7</v>
@@ -1082,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1136,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>6</v>
@@ -1159,7 +1171,7 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1213,7 +1225,7 @@
         <v>-1</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>5</v>
@@ -1236,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1290,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1313,10 +1325,10 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -1367,10 +1379,10 @@
         <v>-1</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1384,22 +1396,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1438,22 +1450,22 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="U11">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1461,22 +1473,22 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1515,22 +1527,22 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1544,13 +1556,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1598,13 +1610,13 @@
         <v>6</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1615,76 +1627,76 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14">
+        <v>-1</v>
+      </c>
+      <c r="T14">
         <v>7</v>
       </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
-      </c>
-      <c r="J14">
-        <v>-1</v>
-      </c>
-      <c r="K14">
-        <v>-1</v>
-      </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-      <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14">
-        <v>-1</v>
-      </c>
-      <c r="O14">
-        <v>-1</v>
-      </c>
-      <c r="P14">
-        <v>-1</v>
-      </c>
-      <c r="Q14">
-        <v>-1</v>
-      </c>
-      <c r="R14">
-        <v>-1</v>
-      </c>
-      <c r="S14">
-        <v>-1</v>
-      </c>
-      <c r="T14">
-        <v>-1</v>
-      </c>
       <c r="U14">
         <v>6</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y14">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1695,17 +1707,20 @@
         <v>-1</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
       <c r="H15">
         <v>-1</v>
       </c>
@@ -1721,6 +1736,9 @@
       <c r="L15">
         <v>-1</v>
       </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
       <c r="N15">
         <v>-1</v>
       </c>
@@ -1736,20 +1754,26 @@
       <c r="R15">
         <v>-1</v>
       </c>
+      <c r="S15">
+        <v>-1</v>
+      </c>
       <c r="T15">
         <v>-1</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X15">
         <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1760,18 +1784,15 @@
         <v>-1</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
         <v>-1</v>
       </c>
       <c r="H16">
@@ -1789,9 +1810,6 @@
       <c r="L16">
         <v>-1</v>
       </c>
-      <c r="M16">
-        <v>-1</v>
-      </c>
       <c r="N16">
         <v>-1</v>
       </c>
@@ -1807,25 +1825,19 @@
       <c r="R16">
         <v>-1</v>
       </c>
-      <c r="S16">
-        <v>-1</v>
-      </c>
       <c r="T16">
         <v>-1</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="V16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X16">
-        <v>6</v>
-      </c>
-      <c r="Y16">
         <v>-1</v>
       </c>
     </row>
@@ -1834,76 +1846,76 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>-1</v>
+      </c>
+      <c r="T17">
+        <v>-1</v>
+      </c>
+      <c r="U17">
         <v>8</v>
       </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>-1</v>
-      </c>
-      <c r="J17">
-        <v>-1</v>
-      </c>
-      <c r="K17">
-        <v>-1</v>
-      </c>
-      <c r="L17">
-        <v>-1</v>
-      </c>
-      <c r="M17">
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <v>-1</v>
-      </c>
-      <c r="P17">
-        <v>-1</v>
-      </c>
-      <c r="Q17">
-        <v>-1</v>
-      </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-      <c r="S17">
-        <v>-1</v>
-      </c>
-      <c r="T17">
-        <v>10</v>
-      </c>
-      <c r="U17">
-        <v>9</v>
-      </c>
       <c r="V17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y17">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1911,22 +1923,22 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>-1</v>
-      </c>
-      <c r="D18">
-        <v>-1</v>
-      </c>
       <c r="E18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -1965,22 +1977,22 @@
         <v>-1</v>
       </c>
       <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>9</v>
+      </c>
+      <c r="V18">
         <v>8</v>
       </c>
-      <c r="U18">
-        <v>-1</v>
-      </c>
-      <c r="V18">
-        <v>-1</v>
-      </c>
       <c r="W18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1988,76 +2000,76 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19">
+        <v>-1</v>
+      </c>
+      <c r="O19">
+        <v>-1</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
         <v>8</v>
       </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>-1</v>
-      </c>
-      <c r="I19">
-        <v>-1</v>
-      </c>
-      <c r="J19">
-        <v>-1</v>
-      </c>
-      <c r="K19">
-        <v>-1</v>
-      </c>
-      <c r="L19">
-        <v>-1</v>
-      </c>
-      <c r="M19">
-        <v>-1</v>
-      </c>
-      <c r="N19">
-        <v>-1</v>
-      </c>
-      <c r="O19">
-        <v>-1</v>
-      </c>
-      <c r="P19">
-        <v>-1</v>
-      </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
-        <v>-1</v>
-      </c>
-      <c r="S19">
-        <v>-1</v>
-      </c>
-      <c r="T19">
-        <v>9</v>
-      </c>
       <c r="U19">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="V19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y19">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2071,16 +2083,16 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
       <c r="G20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2125,16 +2137,16 @@
         <v>6</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
         <v>8</v>
       </c>
-      <c r="X20">
-        <v>6</v>
-      </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2145,73 +2157,73 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>9</v>
+      </c>
+      <c r="W21">
         <v>8</v>
       </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <v>-1</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-      <c r="J21">
-        <v>-1</v>
-      </c>
-      <c r="K21">
-        <v>-1</v>
-      </c>
-      <c r="L21">
-        <v>-1</v>
-      </c>
-      <c r="M21">
-        <v>-1</v>
-      </c>
-      <c r="N21">
-        <v>-1</v>
-      </c>
-      <c r="O21">
-        <v>-1</v>
-      </c>
-      <c r="P21">
-        <v>-1</v>
-      </c>
-      <c r="Q21">
-        <v>-1</v>
-      </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
-      <c r="S21">
-        <v>-1</v>
-      </c>
-      <c r="T21">
-        <v>9</v>
-      </c>
-      <c r="U21">
-        <v>7</v>
-      </c>
-      <c r="V21">
-        <v>7</v>
-      </c>
-      <c r="W21">
-        <v>9</v>
-      </c>
       <c r="X21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y21">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2219,22 +2231,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2273,22 +2285,22 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2296,22 +2308,22 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2350,22 +2362,22 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X23">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2376,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -2388,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2430,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="U24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V24">
         <v>10</v>
@@ -2442,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="Y24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2450,22 +2462,22 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2504,22 +2516,22 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2527,19 +2539,19 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -2581,19 +2593,19 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U26">
         <v>6</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2604,19 +2616,19 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -2658,21 +2670,98 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U27">
         <v>6</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W27">
         <v>6</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>-1</v>
+      </c>
+      <c r="N28">
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <v>-1</v>
+      </c>
+      <c r="P28">
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>-1</v>
+      </c>
+      <c r="R28">
+        <v>-1</v>
+      </c>
+      <c r="S28">
+        <v>-1</v>
+      </c>
+      <c r="T28">
+        <v>-1</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
         <v>-1</v>
       </c>
     </row>
@@ -2703,31 +2792,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2735,10 +2824,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -2747,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2756,74 +2845,74 @@
         <v>8.9</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>65.22</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.5</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>62.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>6.4</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>8.1</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2831,10 +2920,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -2843,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>58.33</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2852,10 +2941,10 @@
         <v>8.5</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>41.67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2863,10 +2952,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2875,19 +2964,19 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>7</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2895,10 +2984,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -2907,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2916,10 +3005,10 @@
         <v>6.8</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>16.67</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +3018,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2941,16 +3030,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2964,19 +3053,19 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2984,236 +3073,236 @@
         <v>20330051920336</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920336</v>
+        <v>20330051920337</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920336</v>
+        <v>20330051920263</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920336</v>
+        <v>20330051920339</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920337</v>
+        <v>20330051920339</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920337</v>
+        <v>20330051920339</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920337</v>
+        <v>20330051920340</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920337</v>
+        <v>20330051920340</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920337</v>
+        <v>20330051920340</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920337</v>
+        <v>20330051920340</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920263</v>
+        <v>20330051920340</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -3221,16 +3310,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920263</v>
+        <v>20330051920341</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -3241,159 +3330,159 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920263</v>
+        <v>20330051920341</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920263</v>
+        <v>20330051920341</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920263</v>
+        <v>20330051920342</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920263</v>
+        <v>20330051920342</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920339</v>
+        <v>20330051920342</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920339</v>
+        <v>20330051920343</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920339</v>
+        <v>20330051920343</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>46</v>
@@ -3401,213 +3490,213 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920339</v>
+        <v>20330051920343</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920339</v>
+        <v>20330051920343</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920341</v>
+        <v>19330051420540</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920341</v>
+        <v>19330051420540</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920341</v>
+        <v>19330051420540</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920341</v>
+        <v>20330051920345</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920341</v>
+        <v>20330051920345</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920341</v>
+        <v>20330051920381</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
         <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920342</v>
+        <v>20330051920346</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920342</v>
+        <v>20330051920346</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920342</v>
+        <v>20330051920347</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>98</v>
@@ -3616,101 +3705,101 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920342</v>
+        <v>20330051920347</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920342</v>
+        <v>20330051920349</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920342</v>
+        <v>20330051920349</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920343</v>
+        <v>20330051920352</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920343</v>
+        <v>20330051920354</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -3721,116 +3810,116 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920343</v>
+        <v>20330051920354</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920343</v>
+        <v>20330051920354</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920343</v>
+        <v>20330051920356</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920343</v>
+        <v>20330051920356</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920344</v>
+        <v>20330051920357</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920344</v>
+        <v>20330051920383</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -3841,1982 +3930,42 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920344</v>
+        <v>20330051920383</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920344</v>
+        <v>20330051920383</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920344</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920344</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051420540</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051420540</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051420540</v>
-      </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051420540</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051420540</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920345</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920345</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920345</v>
-      </c>
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920345</v>
-      </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920345</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920345</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920381</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920381</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920381</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920381</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920381</v>
-      </c>
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920381</v>
-      </c>
-      <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920346</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920346</v>
-      </c>
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920346</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920346</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920346</v>
-      </c>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920346</v>
-      </c>
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920347</v>
-      </c>
-      <c r="B73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920347</v>
-      </c>
-      <c r="B74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920347</v>
-      </c>
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920347</v>
-      </c>
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920347</v>
-      </c>
-      <c r="B77" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920347</v>
-      </c>
-      <c r="B78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920348</v>
-      </c>
-      <c r="B79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920348</v>
-      </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" t="s">
-        <v>101</v>
-      </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920348</v>
-      </c>
-      <c r="B81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" t="s">
-        <v>101</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920348</v>
-      </c>
-      <c r="B82" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920348</v>
-      </c>
-      <c r="B83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920348</v>
-      </c>
-      <c r="B84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920349</v>
-      </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920349</v>
-      </c>
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" t="s">
-        <v>105</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920349</v>
-      </c>
-      <c r="B87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920349</v>
-      </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920349</v>
-      </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920349</v>
-      </c>
-      <c r="B90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920350</v>
-      </c>
-      <c r="B91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920350</v>
-      </c>
-      <c r="B92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920350</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920350</v>
-      </c>
-      <c r="B94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" t="s">
-        <v>106</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920350</v>
-      </c>
-      <c r="B95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" t="s">
-        <v>106</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920350</v>
-      </c>
-      <c r="B96" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920352</v>
-      </c>
-      <c r="B97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920352</v>
-      </c>
-      <c r="B98" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920352</v>
-      </c>
-      <c r="B99" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920352</v>
-      </c>
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" t="s">
-        <v>88</v>
-      </c>
-      <c r="D100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920352</v>
-      </c>
-      <c r="B101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920352</v>
-      </c>
-      <c r="B102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" t="s">
-        <v>88</v>
-      </c>
-      <c r="D102" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920353</v>
-      </c>
-      <c r="B103" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920353</v>
-      </c>
-      <c r="B104" t="s">
-        <v>68</v>
-      </c>
-      <c r="C104" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920353</v>
-      </c>
-      <c r="B105" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D105" t="s">
-        <v>108</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920353</v>
-      </c>
-      <c r="B106" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" t="s">
-        <v>89</v>
-      </c>
-      <c r="D106" t="s">
-        <v>108</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920353</v>
-      </c>
-      <c r="B107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D107" t="s">
-        <v>108</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920353</v>
-      </c>
-      <c r="B108" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" t="s">
-        <v>89</v>
-      </c>
-      <c r="D108" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920354</v>
-      </c>
-      <c r="B109" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" t="s">
-        <v>109</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920354</v>
-      </c>
-      <c r="B110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D110" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920354</v>
-      </c>
-      <c r="B111" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" t="s">
-        <v>62</v>
-      </c>
-      <c r="D111" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920354</v>
-      </c>
-      <c r="B112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920354</v>
-      </c>
-      <c r="B113" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" t="s">
-        <v>62</v>
-      </c>
-      <c r="D113" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920354</v>
-      </c>
-      <c r="B114" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920355</v>
-      </c>
-      <c r="B115" t="s">
-        <v>70</v>
-      </c>
-      <c r="C115" t="s">
-        <v>90</v>
-      </c>
-      <c r="D115" t="s">
-        <v>104</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920355</v>
-      </c>
-      <c r="B116" t="s">
-        <v>70</v>
-      </c>
-      <c r="C116" t="s">
-        <v>90</v>
-      </c>
-      <c r="D116" t="s">
-        <v>104</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920355</v>
-      </c>
-      <c r="B117" t="s">
-        <v>70</v>
-      </c>
-      <c r="C117" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" t="s">
-        <v>104</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920355</v>
-      </c>
-      <c r="B118" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" t="s">
-        <v>104</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920355</v>
-      </c>
-      <c r="B119" t="s">
-        <v>70</v>
-      </c>
-      <c r="C119" t="s">
-        <v>90</v>
-      </c>
-      <c r="D119" t="s">
-        <v>104</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920355</v>
-      </c>
-      <c r="B120" t="s">
-        <v>70</v>
-      </c>
-      <c r="C120" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" t="s">
-        <v>104</v>
-      </c>
-      <c r="E120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920382</v>
-      </c>
-      <c r="B121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121" t="s">
-        <v>61</v>
-      </c>
-      <c r="D121" t="s">
-        <v>98</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920382</v>
-      </c>
-      <c r="B122" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" t="s">
-        <v>61</v>
-      </c>
-      <c r="D122" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920382</v>
-      </c>
-      <c r="B123" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" t="s">
-        <v>61</v>
-      </c>
-      <c r="D123" t="s">
-        <v>98</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920382</v>
-      </c>
-      <c r="B124" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" t="s">
-        <v>61</v>
-      </c>
-      <c r="D124" t="s">
-        <v>98</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920382</v>
-      </c>
-      <c r="B125" t="s">
-        <v>71</v>
-      </c>
-      <c r="C125" t="s">
-        <v>61</v>
-      </c>
-      <c r="D125" t="s">
-        <v>98</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920382</v>
-      </c>
-      <c r="B126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126" t="s">
-        <v>61</v>
-      </c>
-      <c r="D126" t="s">
-        <v>98</v>
-      </c>
-      <c r="E126" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920356</v>
-      </c>
-      <c r="B127" t="s">
-        <v>72</v>
-      </c>
-      <c r="C127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920356</v>
-      </c>
-      <c r="B128" t="s">
-        <v>72</v>
-      </c>
-      <c r="C128" t="s">
-        <v>91</v>
-      </c>
-      <c r="D128" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920356</v>
-      </c>
-      <c r="B129" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" t="s">
-        <v>91</v>
-      </c>
-      <c r="D129" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920356</v>
-      </c>
-      <c r="B130" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920356</v>
-      </c>
-      <c r="B131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" t="s">
-        <v>91</v>
-      </c>
-      <c r="D131" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920356</v>
-      </c>
-      <c r="B132" t="s">
-        <v>72</v>
-      </c>
-      <c r="C132" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" t="s">
-        <v>110</v>
-      </c>
-      <c r="E132" t="s">
-        <v>5</v>
-      </c>
-      <c r="F132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920357</v>
-      </c>
-      <c r="B133" t="s">
-        <v>73</v>
-      </c>
-      <c r="C133" t="s">
-        <v>92</v>
-      </c>
-      <c r="D133" t="s">
-        <v>111</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920357</v>
-      </c>
-      <c r="B134" t="s">
-        <v>73</v>
-      </c>
-      <c r="C134" t="s">
-        <v>92</v>
-      </c>
-      <c r="D134" t="s">
-        <v>111</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920357</v>
-      </c>
-      <c r="B135" t="s">
-        <v>73</v>
-      </c>
-      <c r="C135" t="s">
-        <v>92</v>
-      </c>
-      <c r="D135" t="s">
-        <v>111</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920357</v>
-      </c>
-      <c r="B136" t="s">
-        <v>73</v>
-      </c>
-      <c r="C136" t="s">
-        <v>92</v>
-      </c>
-      <c r="D136" t="s">
-        <v>111</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920357</v>
-      </c>
-      <c r="B137" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" t="s">
-        <v>92</v>
-      </c>
-      <c r="D137" t="s">
-        <v>111</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920357</v>
-      </c>
-      <c r="B138" t="s">
-        <v>73</v>
-      </c>
-      <c r="C138" t="s">
-        <v>92</v>
-      </c>
-      <c r="D138" t="s">
-        <v>111</v>
-      </c>
-      <c r="E138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920383</v>
-      </c>
-      <c r="B139" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139" t="s">
-        <v>93</v>
-      </c>
-      <c r="D139" t="s">
-        <v>112</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920383</v>
-      </c>
-      <c r="B140" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140" t="s">
-        <v>93</v>
-      </c>
-      <c r="D140" t="s">
-        <v>112</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920383</v>
-      </c>
-      <c r="B141" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" t="s">
-        <v>93</v>
-      </c>
-      <c r="D141" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920383</v>
-      </c>
-      <c r="B142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C142" t="s">
-        <v>93</v>
-      </c>
-      <c r="D142" t="s">
-        <v>112</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920383</v>
-      </c>
-      <c r="B143" t="s">
-        <v>74</v>
-      </c>
-      <c r="C143" t="s">
-        <v>93</v>
-      </c>
-      <c r="D143" t="s">
-        <v>112</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920383</v>
-      </c>
-      <c r="B144" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" t="s">
-        <v>93</v>
-      </c>
-      <c r="D144" t="s">
-        <v>112</v>
-      </c>
-      <c r="E144" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5826,7 +3975,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5838,70 +3987,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920336</v>
+        <v>20330051920340</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920337</v>
+        <v>20330051920342</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920263</v>
+        <v>20330051920343</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5909,16 +4058,16 @@
         <v>20330051920339</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5926,152 +4075,152 @@
         <v>20330051920341</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920342</v>
+        <v>19330051420540</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920343</v>
+        <v>20330051920354</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920344</v>
+        <v>20330051920383</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920345</v>
+        <v>20330051920336</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920381</v>
+        <v>20330051920337</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920346</v>
+        <v>20330051920345</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920347</v>
+        <v>20330051920346</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920348</v>
+        <v>20330051920347</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6079,186 +4228,203 @@
         <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920350</v>
+        <v>20330051920356</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920352</v>
+        <v>20330051920263</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920353</v>
+        <v>20330051920381</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920354</v>
+        <v>20330051920352</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920355</v>
+        <v>20330051920357</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920382</v>
+        <v>20330051920344</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920356</v>
+        <v>20330051920348</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920357</v>
+        <v>20330051920350</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920383</v>
+        <v>20330051920353</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051420540</v>
+        <v>20330051920355</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>20330051920382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6280,22 +4446,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -6303,22 +4469,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920263</v>
+        <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -6326,22 +4492,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920263</v>
+        <v>20330051920336</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -6349,45 +4515,45 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920347</v>
+        <v>20330051920263</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920347</v>
+        <v>20330051920263</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6395,22 +4561,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920352</v>
+        <v>20330051920347</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6418,22 +4584,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920352</v>
+        <v>20330051920347</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6441,19 +4607,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920357</v>
+        <v>20330051920381</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -6464,22 +4630,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920357</v>
+        <v>20330051920352</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -6487,13 +4653,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920381</v>
+        <v>20330051920357</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>103</v>
@@ -6502,7 +4668,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>-1</v>
